--- a/GBP Bonds/Service Companies/Financials/William Hill Organization Ltd.xlsx
+++ b/GBP Bonds/Service Companies/Financials/William Hill Organization Ltd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Service Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09158BF-9D33-4338-9342-EA00FB56D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B533D3B-94B0-4E38-B431-85A11F6C26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
     <t>Interest Expense</t>
   </si>
   <si>
-    <t>William Hill Organization Ltd</t>
+    <t>William Hill Ltd</t>
   </si>
 </sst>
 </file>
@@ -957,12 +957,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1039,6 +1033,12 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1358,1950 +1358,1935 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.989344687499</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="30">
         <v>44558</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="30">
         <v>44194</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="30">
         <v>43830</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="30">
         <v>43466</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="30">
         <v>43095</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="30">
         <v>42731</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="30">
         <v>42367</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="30">
         <v>42003</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="30">
         <v>41639</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>332.9</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>349.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>701.5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>879.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>897.9</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>879</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>873.9</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>895.2</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>890.18</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>260.39999999999998</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>274.39999999999998</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>541.6</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>655</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>667</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>654.5</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>653.6</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <v>689.2</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>691.33</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>88.9</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>165.5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>541.6</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>-794.8</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>667</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>133.4</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <v>176.7</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>-314.8</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>-281.63</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>142.5</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>220.6</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>-103.4</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>-763</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>-199.4</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>166.4</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>208</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="13">
         <v>219.1</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>236.49</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>102.8</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>143.6</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>210.8</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>247.7</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>49.7</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>403</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>261.5</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>321.5</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>128.6</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="14">
         <v>40.9</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="13">
         <v>114.3</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <v>70.5</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>49.7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>403</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>261.5</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>321.5</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>128.6</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="14">
         <v>40.9</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="13">
         <v>114.3</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="14">
         <v>70.5</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>2834.4</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>2641.1</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>2552.3000000000002</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>3274.4</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>3592.5</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>3630.8</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="13">
         <v>3335.3</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="13">
         <v>3098</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="13">
         <v>2921.84</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>87.4</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>99.5</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>141.5</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>2</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <v>1.8</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>1.8</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="14">
         <v>2.7</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>392.7</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>321.8</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>245.9</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="15">
         <v>-126.4</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <v>159.4</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="13">
         <v>118.6</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>146.5</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>101.4</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17">
         <v>-34.5</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>96.7</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>-63.5</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="14">
         <v>42.9</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13">
         <v>192.9</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>87.7</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>-73.400000000000006</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="14">
         <v>43.8</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="18">
         <v>78.22</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>78.510000000000005</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>77.209999999999994</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>74.510000000000005</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>74.28</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>74.459999999999994</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>74.790000000000006</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>76.989999999999995</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="18">
         <v>77.66</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="18">
         <v>42.81</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>63.12</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>-14.74</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>-86.79</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>-22.21</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>18.93</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>23.8</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>24.47</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="18">
         <v>26.57</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="18">
         <v>26.7</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>47.35</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <v>77.209999999999994</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>-90.41</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="18">
         <v>74.28</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="18">
         <v>15.18</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>20.22</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="19">
         <v>-35.17</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="19">
         <v>-31.64</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="18">
         <v>22.59</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>48.24</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>0.36</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>-79.459999999999994</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>-25.66</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>26.36</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>28.2</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>31.75</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="18">
         <v>23.85</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>-36.700000000000003</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>14.83</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>-636</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18">
         <v>9.02</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>-0.53</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>8.83</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="18">
         <v>20.95</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="18">
         <v>30.88</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>41.09</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>2.62</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>-69.17</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>-27.61</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>23.98</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>28.34</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>28.94</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="18">
         <v>18.850000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="18">
         <v>28.78</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>48.73</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="18">
         <v>7.17</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>-1017.74</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="19">
         <v>-1502.42</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="18">
         <v>151.65</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="18">
         <v>186.87</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="18">
         <v>209.04</v>
       </c>
-      <c r="J38" s="20"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="18">
         <v>3.75</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>5.53</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <v>0.63</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>-17.71</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="19">
         <v>-6.86</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="18">
         <v>6.05</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="18">
         <v>7.7</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <v>8.61</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="18">
         <v>29.51</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>39.71</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>88.95</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18">
         <v>176.36</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>18.97</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>10.8</v>
       </c>
-      <c r="J40" s="20"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="13">
         <v>332.9</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>349.5</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <v>701.5</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="13">
         <v>879.1</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="13">
         <v>897.9</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="13">
         <v>879</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="13">
         <v>873.9</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="13">
         <v>895.2</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="13">
         <v>890.18</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>88.9</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="13">
         <v>165.5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <v>541.6</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>-794.8</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="13">
         <v>667</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="13">
         <v>133.4</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="13">
         <v>176.7</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="15">
         <v>-314.8</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="15">
         <v>-281.63</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="13">
         <v>142.5</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="13">
         <v>220.6</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>-103.4</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>-763</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="15">
         <v>-199.4</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="13">
         <v>166.4</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="13">
         <v>208</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="13">
         <v>219.1</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="13">
         <v>236.49</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <v>102.8</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="13">
         <v>143.6</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="13">
         <v>210.8</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="13">
         <v>247.7</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="18">
         <v>3.08</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>3.77</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>5.54</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>0.06</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>0.05</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <v>0.05</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>0.08</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <v>90.07</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="18">
         <v>90.9</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>18.2</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>23.62</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>34.590000000000003</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>0.81</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>2.23</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="18">
         <v>95.01</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="18">
         <v>96.32</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="18">
         <v>22.26</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>30.92</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>52.88</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>0.81</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20">
+      <c r="F49" s="18"/>
+      <c r="G49" s="18">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>1904.78</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>2619.38</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>37.450000000000003</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="14">
         <v>33.549999999999997</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="14">
         <v>59.95</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="17">
         <v>-6.2</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <v>14.1</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="14">
         <v>22.65</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="13">
         <v>1337.4</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="13">
         <v>2754.63</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="14">
         <v>28.36</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>36.43</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>23.36</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="18">
         <v>325.82</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18">
         <v>11.63</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="18">
         <v>9.8800000000000008</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>539.92999999999995</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="18">
         <v>987.32</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="18">
         <v>14.57</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="14">
         <v>6.62</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="17">
         <v>-4.59</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="17">
         <v>-16.25</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="17">
         <v>-5.68</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="14">
         <v>3.17</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="14">
         <v>4.2</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="14">
         <v>3.52</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="14">
         <v>5.77</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>87.4</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="14">
         <v>99.5</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="13">
         <v>141.5</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>2</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <v>1.8</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>1.8</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="14">
         <v>2.7</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>49.7</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="13">
         <v>403</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="13">
         <v>261.5</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>321.5</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>128.6</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>40.9</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="13">
         <v>114.3</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="14">
         <v>70.5</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>0.12</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>0.13</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <v>0.24</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>0.26</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="14">
         <v>0.25</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="14">
         <v>0.25</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="14">
         <v>0.27</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="14">
         <v>0.3</v>
       </c>
-      <c r="J57" s="18"/>
+      <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>22.59</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>48.24</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>0.36</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>-79.459999999999994</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>-25.66</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>26.36</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>28.2</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>31.75</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="18">
         <v>23.85</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>2.75</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>6.49</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>0.09</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>-20.34</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>-6.38</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>6.65</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>7.66</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>9.44</v>
       </c>
-      <c r="J59" s="20"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>7.66</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>8.81</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>11.35</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>57.46</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="13">
         <v>218.89</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>25.06</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="14">
         <v>24.27</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="14">
         <v>24.28</v>
       </c>
-      <c r="J60" s="18"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="18">
         <v>21.05</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="18">
         <v>57.21</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="18">
         <v>0.97</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <v>-1169.04</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="19">
         <v>-1396.36</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="18">
         <v>166.69</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="18">
         <v>185.89</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="18">
         <v>229.29</v>
       </c>
-      <c r="J61" s="20"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>1.37</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="14">
         <v>0.85</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <v>7.36</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="16">
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="14">
         <v>0.91</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="14">
         <v>1.01</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="14">
         <v>0.91</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="14">
         <v>0.79</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="18">
         <v>28.78</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>48.73</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>7.17</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="19">
         <v>-1017.74</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="19">
         <v>-1502.42</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="18">
         <v>151.65</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="18">
         <v>186.87</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="18">
         <v>209.04</v>
       </c>
-      <c r="J63" s="20"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>12065.02</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>13684.01</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="13">
         <v>1417.4</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="20">
         <v>-43557.05</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="20">
         <v>-17612.79</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="16">
         <v>15166.01</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="16">
         <v>17735.93</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="16">
         <v>17664.91</v>
       </c>
-      <c r="J65" s="18"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="16">
         <v>39070.480000000003</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="16">
         <v>33304.75</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="16">
         <v>54038.44</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="16">
         <v>62968.27</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="16">
         <v>63793.96</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="16">
         <v>63239.68</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="16">
         <v>62573.39</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="16">
         <v>61032.9</v>
       </c>
-      <c r="J66" s="18"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>344733.64</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>299478.40000000002</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <v>209737.86</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>237378.57</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="16">
         <v>254282.28</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="16">
         <v>258935.96</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="16">
         <v>242091.89</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="16">
         <v>218862.59</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J67" s="16">
         <v>192479.84</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="14">
         <v>0.49</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="14">
         <v>0.38</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="14">
         <v>0.53</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="14">
         <v>0.42</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="14">
         <v>0.38</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="14">
         <v>0.22</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="14">
         <v>0.17</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="16">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="14">
         <v>0.17</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="17">
         <v>-0.36</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="17">
         <v>-0.44</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="17">
         <v>-0.52</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="17">
         <v>-0.43</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="17">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="17">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="17">
         <v>-0.67</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="17">
         <v>-0.74</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J71" s="17">
         <v>-0.8</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="14">
         <v>0.34</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="14">
         <v>0.76</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="14">
         <v>0.74</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="14">
         <v>0.87</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="14">
         <v>1.03</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="14">
         <v>1.32</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="14">
         <v>1.83</v>
       </c>
-      <c r="J73" s="18"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="13">
         <v>1077.6099999999999</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="13">
         <v>658.38</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="13">
         <v>484.2</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="13">
         <v>495.48</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="13">
         <v>419.13</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="13">
         <v>356.44</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="13">
         <v>277.04000000000002</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="13">
         <v>200.27</v>
       </c>
-      <c r="J74" s="18"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>0.03</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="14">
         <v>0.04</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="14">
         <v>0.15</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="14">
         <v>14.28</v>
       </c>
-      <c r="J75" s="18"/>
+      <c r="J75" s="16"/>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="16">
         <v>11004.99</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="16">
         <v>10012.61</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="13">
         <v>5584.88</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="13">
         <v>5288.63</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="13">
         <v>5429.53</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="13">
         <v>5102.8900000000003</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="13">
         <v>2508.84</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="14">
         <v>25.64</v>
       </c>
-      <c r="J76" s="18"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="15">
         <v>-9927.3799999999992</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="15">
         <v>-9354.23</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="15">
         <v>-5100.68</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="15">
         <v>-4793.1499999999996</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="15">
         <v>-5010.3999999999996</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="15">
         <v>-4746.4399999999996</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="15">
         <v>-2231.79</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="13">
         <v>174.64</v>
       </c>
-      <c r="J77" s="18"/>
+      <c r="J77" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="D13"/>
     <mergeCell ref="G11"/>
     <mergeCell ref="H11"/>
     <mergeCell ref="I11"/>
@@ -3314,6 +3299,21 @@
     <mergeCell ref="D11"/>
     <mergeCell ref="E11"/>
     <mergeCell ref="F11"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -3338,326 +3338,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.989344780101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="30">
         <v>43466</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="30">
         <v>43095</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="30">
         <v>42731</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="30">
         <v>42367</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>-34.5</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>96.7</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>-63.5</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>42.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>227.4</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>-9</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>-58.2</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <v>50.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="23">
         <v>48.3</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>-50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>192.9</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <v>87.7</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <v>-73.400000000000006</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <v>43.8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>192.9</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>87.7</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>-73.400000000000006</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>43.8</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>128.6</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>40.9</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>114.3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>70.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>321.5</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>128.6</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>40.9</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>114.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="E12"/>
     <mergeCell ref="E13"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C12"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
     <mergeCell ref="D13"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="E12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -3682,2908 +3682,2893 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.989344791698</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="30">
         <v>44558</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="30">
         <v>44194</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="30">
         <v>43830</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="30">
         <v>43466</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="30">
         <v>43095</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="30">
         <v>42731</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="30">
         <v>42367</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="30">
         <v>42003</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="30">
         <v>41639</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>49.7</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>403</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>261.5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>321.5</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>128.6</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>40.9</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>114.3</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>70.5</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>49.7</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>403</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>261.5</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>321.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>128.6</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="14">
         <v>40.9</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>114.3</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="14">
         <v>70.5</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>1279.3</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>681</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>576.4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>1279.7</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>1100.5</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>956</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <v>756.1</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="13">
         <v>566.9</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>412.79</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>1270.7</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>654.5</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>567</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>1251.0999999999999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>1067.5</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>923.2</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>725.1</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="13">
         <v>538.20000000000005</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>382.64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>8.6</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>26.5</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>9.4</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>28.6</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>33</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="14">
         <v>32.799999999999997</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="14">
         <v>31</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>28.7</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <v>30.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="16">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14">
         <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>20.7</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>0.7</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15">
+      <c r="E23" s="16"/>
+      <c r="F23" s="13">
         <v>291.60000000000002</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="13">
         <v>278.8</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13">
         <v>291.60000000000002</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <v>278.8</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>1349.7</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>1085</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <v>838.6</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>1601.2</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>1520.7</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="24">
         <v>1275.7</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>870.4</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>637.4</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <v>468.72</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>1386.2</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>1471.6</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>964.1</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <v>1295.8</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="13">
         <v>1399.6</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>1428</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="13">
         <v>1413.31</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>1376.3</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="13">
         <v>1454.5</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="13">
         <v>963.8</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="13">
         <v>1295.5</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="13">
         <v>1399.6</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="13">
         <v>1428</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="13">
         <v>1413.31</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="16">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14">
         <v>9.9</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>0.3</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>0.3</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>25.5</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>92.7</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>85.3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>50.2</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>3.1</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <v>3.1</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>25.5</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>92.7</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>85.3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>50.2</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>3.1</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <v>3.1</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>143.30000000000001</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>144</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>118.3</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>76.2</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <v>170.3</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <v>178.6</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="13">
         <v>178.2</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="13">
         <v>200.7</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <v>207.33</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>8.4</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <v>85.3</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>50.2</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <v>77.900000000000006</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="14">
         <v>33.299999999999997</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="14">
         <v>44.5</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>22.6</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <v>24.8</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <v>38.6</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>25</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <v>856.4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <v>844.3</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="13">
         <v>842.6</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="13">
         <v>831.9</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="13">
         <v>832.49</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>1484.7</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>1556.1</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="24">
         <v>1713.7</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="24">
         <v>1673.2</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="24">
         <v>2071.8000000000002</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="24">
         <v>2355.1</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="24">
         <v>2464.9</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="24">
         <v>2460.6</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="24">
         <v>2453.13</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>2834.4</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>2641.1</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="24">
         <v>2552.3000000000002</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="24">
         <v>3274.4</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="24">
         <v>3592.5</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="24">
         <v>3630.8</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>3335.3</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <v>3098</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <v>2921.84</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="13">
         <v>2309.1999999999998</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>2157.3000000000002</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>2066.8000000000002</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>2940.9</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>3598.3</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <v>3306.8</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="13">
         <v>3051.2</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <v>67.599999999999994</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="14">
         <v>46.9</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>2252.6999999999998</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>2107.1999999999998</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <v>2001.8</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="13">
         <v>2878.1</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <v>3598.3</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <v>3252.4</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="13">
         <v>3007.7</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <v>12.5</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="14">
         <v>16.36</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="14">
         <v>56.5</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <v>50.1</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <v>65</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>62.8</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="16">
+      <c r="F41" s="16"/>
+      <c r="G41" s="14">
         <v>54.4</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="14">
         <v>43.5</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <v>55.1</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <v>30.54</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>17.7</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="14">
         <v>29.8</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <v>43.5</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>2</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="14">
         <v>1.8</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="14">
         <v>1.8</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="14">
         <v>2.7</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <v>1.5</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>2.4</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>2</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <v>1.8</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="14">
         <v>1.8</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="14">
         <v>2.7</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>15.5</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <v>28.3</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <v>41.1</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>15.5</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <v>28.3</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <v>41.1</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="14">
         <v>32.9</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <v>37.299999999999997</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <v>42.4</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>66.8</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <v>8.1</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>59.1</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="14">
         <v>55.1</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="14">
         <v>61.4</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="14">
         <v>73.59</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>9.9</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="14">
         <v>11.9</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <v>25.8</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>11.9</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>9.9</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="14">
         <v>11</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="14">
         <v>26.41</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>6.6</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>8</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>21.5</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>6.9</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>3.3</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="14">
         <v>3.9</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <v>4.3</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>5</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="16">
+      <c r="F49" s="16"/>
+      <c r="G49" s="14">
         <v>9.9</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="14">
         <v>11</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="14">
         <v>26.41</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="24">
         <v>2369.6999999999998</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="24">
         <v>2236.3000000000002</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="24">
         <v>2178.5</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="24">
         <v>3021.6</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="24">
         <v>3617.4</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="24">
         <v>3377.6</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="24">
         <v>3120</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="24">
         <v>2935.6</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="24">
         <v>2802.84</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>69.7</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="14">
         <v>69.7</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>98</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>69.7</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="14">
         <v>69.7</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="14">
         <v>98</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="16">
+      <c r="B54" s="16"/>
+      <c r="C54" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>6.9</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="13">
         <v>101.5</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>93.8</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="16">
+      <c r="H54" s="16"/>
+      <c r="I54" s="14">
         <v>2.7</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="14">
         <v>3.61</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="16">
+      <c r="B55" s="16"/>
+      <c r="C55" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>6.9</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="13">
         <v>101.5</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>93.8</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="16">
+      <c r="H55" s="16"/>
+      <c r="I55" s="14">
         <v>2.7</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="14">
         <v>3.61</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>4</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="16">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="14">
         <v>96.7</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="14">
         <v>13.2</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>4</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="16">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14">
         <v>96.7</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="14">
         <v>13.2</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="16">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="14">
         <v>4</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="16">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="14">
         <v>96.7</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="14">
         <v>13.2</v>
       </c>
-      <c r="J59" s="18"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>72</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>83</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="13">
         <v>106.2</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>6.9</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="13">
         <v>101.5</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>93.8</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="14">
         <v>96.7</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="14">
         <v>15.9</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="14">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="24">
         <v>2441.6999999999998</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="24">
         <v>2319.3000000000002</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="24">
         <v>2284.6999999999998</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="24">
         <v>3028.5</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="24">
         <v>3718.9</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="24">
         <v>3471.4</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="24">
         <v>3216.7</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="24">
         <v>2951.5</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="24">
         <v>2820.45</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="13">
         <v>392.7</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="13">
         <v>321.8</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <v>245.9</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="15">
         <v>-126.4</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="13">
         <v>159.4</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="13">
         <v>118.6</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="13">
         <v>146.5</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="13">
         <v>101.4</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="13">
         <v>392.7</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="13">
         <v>321.8</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="13">
         <v>245.9</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="15">
         <v>-126.4</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="13">
         <v>159.4</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="13">
         <v>118.6</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="13">
         <v>146.5</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="13">
         <v>101.4</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>1.5</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="14">
         <v>1.5</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="14">
         <v>1.5</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>1.5</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="14">
         <v>1.5</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="14">
         <v>1.5</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="14">
         <v>1.5</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="14">
         <v>1.5</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="14">
         <v>1.47</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>1.5</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="14">
         <v>1.5</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="14">
         <v>1.5</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="14">
         <v>1.5</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="14">
         <v>1.5</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="14">
         <v>1.5</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="14">
         <v>1.5</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="14">
         <v>1.5</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="14">
         <v>1.47</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="13">
         <v>391.2</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="13">
         <v>320.3</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>266.10000000000002</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="13">
         <v>244.4</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="15">
         <v>-127.9</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="13">
         <v>157.9</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="13">
         <v>117.1</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="13">
         <v>145</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="14">
         <v>99.93</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>-617.5</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <v>-688.4</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="15">
         <v>-742.6</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="15">
         <v>-764.3</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="15">
         <v>-136.6</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="13">
         <v>149.19999999999999</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="13">
         <v>108.4</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="13">
         <v>136.30000000000001</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="14">
         <v>91.2</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="13">
         <v>1008.7</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="13">
         <v>1008.7</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="13">
         <v>1008.7</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="13">
         <v>1008.7</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="14">
         <v>8.73</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="13">
         <v>392.7</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="13">
         <v>321.8</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="13">
         <v>245.9</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="15">
         <v>-126.4</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="13">
         <v>159.4</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="13">
         <v>118.6</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="13">
         <v>146.5</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="13">
         <v>101.4</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="24">
         <v>392.7</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="24">
         <v>321.8</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="24">
         <v>267.60000000000002</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E73" s="24">
         <v>245.9</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F73" s="29">
         <v>-126.4</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="24">
         <v>159.4</v>
       </c>
-      <c r="H73" s="26">
+      <c r="H73" s="24">
         <v>118.6</v>
       </c>
-      <c r="I73" s="26">
+      <c r="I73" s="24">
         <v>146.5</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="24">
         <v>101.4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="24">
         <v>2834.4</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="24">
         <v>2641.1</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="24">
         <v>2552.3000000000002</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="24">
         <v>3274.4</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="24">
         <v>3592.5</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="24">
         <v>3630.8</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="24">
         <v>3335.3</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="24">
         <v>3098</v>
       </c>
-      <c r="J75" s="26">
+      <c r="J75" s="24">
         <v>2921.84</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>85.2</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="14">
         <v>98</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="13">
         <v>139.1</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>87.4</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="14">
         <v>99.5</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="13">
         <v>141.5</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="14">
         <v>2</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="14">
         <v>1.8</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="14">
         <v>1.8</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="14">
         <v>2.7</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="13">
         <v>1386.2</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="13">
         <v>1471.6</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="13">
         <v>964.1</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="13">
         <v>1295.8</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="13">
         <v>1399.6</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="13">
         <v>1428</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="13">
         <v>1413.31</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="13">
         <v>1304.8</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="13">
         <v>773.7</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="13">
         <v>661.7</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>1329.9</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="13">
         <v>1103.5999999999999</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="13">
         <v>959.1</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="13">
         <v>756.1</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="13">
         <v>566.9</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="13">
         <v>412.79</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>29.1</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="14">
         <v>10.7</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="14">
         <v>86</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="14">
         <v>50.2</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F82" s="13">
         <v>369.5</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="13">
         <v>312.10000000000002</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="14">
         <v>44.5</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>32.9</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="14">
         <v>37.299999999999997</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="14">
         <v>42.4</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="14">
         <v>66.8</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="14">
         <v>8.1</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="14">
         <v>59.1</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H83" s="14">
         <v>55.1</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="14">
         <v>61.4</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="14">
         <v>73.59</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="13">
         <v>2309.1999999999998</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="13">
         <v>2157.3000000000002</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="13">
         <v>2066.8000000000002</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="13">
         <v>2940.9</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F84" s="13">
         <v>3598.3</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="13">
         <v>3306.8</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="13">
         <v>3051.2</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="14">
         <v>67.599999999999994</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J84" s="14">
         <v>46.9</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="13">
         <v>2252.6999999999998</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="13">
         <v>2107.1999999999998</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="13">
         <v>2001.8</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="13">
         <v>2878.1</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="13">
         <v>3598.3</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="13">
         <v>3252.4</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="13">
         <v>3007.7</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="14">
         <v>12.5</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="14">
         <v>16.36</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="14">
         <v>56.5</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="14">
         <v>50.1</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="14">
         <v>65</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="14">
         <v>62.8</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="16">
+      <c r="F86" s="16"/>
+      <c r="G86" s="14">
         <v>54.4</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H86" s="14">
         <v>43.5</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="14">
         <v>55.1</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="14">
         <v>30.54</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>37.700000000000003</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="15">
         <v>-303.5</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="15">
         <v>-120</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="15">
         <v>-319.5</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="15">
         <v>-126.8</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G88" s="17">
         <v>-39.1</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="15">
         <v>-111.6</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I88" s="13">
         <v>2720</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="13">
         <v>2600.15</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="15">
         <v>-1069.7</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="15">
         <v>-1554.3</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="15">
         <v>-1601.4</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="15">
         <v>-1741.9</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="15">
         <v>-2225.3000000000002</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="15">
         <v>-2142.8000000000002</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="15">
         <v>-2363.9</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="15">
         <v>-2368.6999999999998</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="15">
         <v>-2389.92</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="13">
         <v>2759.2</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="13">
         <v>2145.4</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="13">
         <v>2205.5</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="13">
         <v>2902.7</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="13">
         <v>3460.8</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="13">
         <v>3586.8</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="13">
         <v>3221</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I91" s="13">
         <v>3027.5</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J91" s="13">
         <v>2866.05</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="14">
         <v>49.7</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="13">
         <v>403</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="13">
         <v>261.5</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="13">
         <v>321.5</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92" s="13">
         <v>128.6</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="14">
         <v>40.9</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H92" s="13">
         <v>114.3</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92" s="14">
         <v>70.5</v>
       </c>
-      <c r="J92" s="16">
+      <c r="J92" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="14">
         <v>49.7</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="13">
         <v>403</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="13">
         <v>261.5</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="13">
         <v>321.5</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="13">
         <v>128.6</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="14">
         <v>40.9</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="13">
         <v>114.3</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="14">
         <v>70.5</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="14">
         <v>55.8</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="14">
         <v>87.4</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="14">
         <v>99.5</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="13">
         <v>141.5</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="14">
         <v>2</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="14">
         <v>1.8</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="14">
         <v>1.8</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="14">
         <v>2.7</v>
       </c>
-      <c r="I94" s="15">
+      <c r="I94" s="13">
         <v>2790.5</v>
       </c>
-      <c r="J94" s="15">
+      <c r="J94" s="13">
         <v>2655.95</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="15">
+      <c r="B95" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="13">
         <v>1284.9000000000001</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="13">
         <v>1386.2</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="13">
         <v>1471.6</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="13">
         <v>964.1</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="13">
         <v>1295.8</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H95" s="13">
         <v>1399.6</v>
       </c>
-      <c r="I95" s="15">
+      <c r="I95" s="13">
         <v>1428</v>
       </c>
-      <c r="J95" s="15">
+      <c r="J95" s="13">
         <v>1413.31</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="13">
         <v>430.4</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="14">
         <v>18.3</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="13">
         <v>147.6</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="17">
         <v>-73.599999999999994</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="15">
         <v>-253.2</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="13">
         <v>120.3</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="14">
         <v>7</v>
       </c>
-      <c r="I96" s="15">
+      <c r="I96" s="13">
         <v>2866.5</v>
       </c>
-      <c r="J96" s="15">
+      <c r="J96" s="13">
         <v>2701.55</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="13">
         <v>430.4</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="14">
         <v>18.3</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="13">
         <v>147.6</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="17">
         <v>-73.599999999999994</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="15">
         <v>-253.2</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="13">
         <v>120.3</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="14">
         <v>7</v>
       </c>
-      <c r="I97" s="15">
+      <c r="I97" s="13">
         <v>2866.5</v>
       </c>
-      <c r="J97" s="15">
+      <c r="J97" s="13">
         <v>2701.55</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="14">
         <v>8.9</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="14">
         <v>21.3</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="14">
         <v>29.7</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="14">
         <v>13.8</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="13">
         <v>110.7</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="14">
         <v>93.8</v>
       </c>
-      <c r="H98" s="16">
+      <c r="H98" s="14">
         <v>96.7</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="14">
         <v>15.9</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="14">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="13">
         <v>392.7</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="13">
         <v>321.8</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="13">
         <v>267.60000000000002</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <v>245.9</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="15">
         <v>-126.4</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="13">
         <v>159.4</v>
       </c>
-      <c r="H99" s="15">
+      <c r="H99" s="13">
         <v>118.6</v>
       </c>
-      <c r="I99" s="15">
+      <c r="I99" s="13">
         <v>146.5</v>
       </c>
-      <c r="J99" s="15">
+      <c r="J99" s="13">
         <v>101.4</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="13">
         <v>370.1</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="13">
         <v>297</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="13">
         <v>229</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="13">
         <v>220.9</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="15">
         <v>-982.8</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="15">
         <v>-684.9</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="15">
         <v>-724</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="15">
         <v>-685.4</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J100" s="15">
         <v>-731.09</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="13">
         <v>370.1</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="13">
         <v>297</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="13">
         <v>229</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="13">
         <v>220.9</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="15">
         <v>-982.8</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="15">
         <v>-684.9</v>
       </c>
-      <c r="H101" s="17">
+      <c r="H101" s="15">
         <v>-724</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I101" s="15">
         <v>-685.4</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="15">
         <v>-731.09</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="13">
         <v>480.1</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="13">
         <v>421.3</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="13">
         <v>409.1</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="13">
         <v>247.9</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="15">
         <v>-124.6</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="13">
         <v>161.19999999999999</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="13">
         <v>121.3</v>
       </c>
-      <c r="I102" s="15">
+      <c r="I102" s="13">
         <v>2937</v>
       </c>
-      <c r="J102" s="15">
+      <c r="J102" s="13">
         <v>2757.35</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="13">
         <v>480.1</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="13">
         <v>421.3</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="13">
         <v>409.1</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="13">
         <v>247.9</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="15">
         <v>-124.6</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="13">
         <v>161.19999999999999</v>
       </c>
-      <c r="H103" s="15">
+      <c r="H103" s="13">
         <v>121.3</v>
       </c>
-      <c r="I103" s="15">
+      <c r="I103" s="13">
         <v>2937</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="13">
         <v>2757.35</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="13">
         <v>464.7</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="13">
         <v>404.8</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="13">
         <v>373.8</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="13">
         <v>252.8</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="17">
         <v>-24.9</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="13">
         <v>253.2</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="13">
         <v>215.3</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="13">
         <v>162.4</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="13">
         <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="13">
         <v>1459.2</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="13">
         <v>1463.4</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="13">
         <v>1628.4</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="13">
         <v>1623</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="13">
         <v>2068.6999999999998</v>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="13">
         <v>2352</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="13">
         <v>2464.9</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I105" s="13">
         <v>2460.6</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="13">
         <v>2453.13</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="15">
         <v>-1020</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="15">
         <v>-1151.3</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="15">
         <v>-1339.9</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="15">
         <v>-1420.4</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="15">
         <v>-2096.6999999999998</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="15">
         <v>-2101.9</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="15">
         <v>-2249.6</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="15">
         <v>-2298.1999999999998</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="15">
         <v>-2334.12</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="15">
         <v>-1069.7</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="15">
         <v>-1554.3</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="15">
         <v>-1601.4</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="15">
         <v>-1741.9</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="15">
         <v>-2225.3000000000002</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="15">
         <v>-2142.8000000000002</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="15">
         <v>-2363.9</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="15">
         <v>-2368.6999999999998</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="15">
         <v>-2389.92</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="15">
         <v>-1030.8</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="15">
         <v>-1140.4000000000001</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="15">
         <v>-1314.8</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="15">
         <v>-1408.5</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="15">
         <v>-2379.1</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="15">
         <v>-2370.8000000000002</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="15">
         <v>-2238.6</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="15">
         <v>-2282.1</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="15">
         <v>-2307.7199999999998</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="15">
         <v>-616</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="15">
         <v>-686.9</v>
       </c>
-      <c r="D109" s="17">
+      <c r="D109" s="15">
         <v>-741.1</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="15">
         <v>-762.8</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="15">
         <v>-135.1</v>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="13">
         <v>150.69999999999999</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H109" s="13">
         <v>109.9</v>
       </c>
-      <c r="I109" s="15">
+      <c r="I109" s="13">
         <v>137.80000000000001</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="14">
         <v>92.66</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="13">
         <v>8222</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="13">
         <v>8819</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="16">
         <v>12169</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="16">
         <v>13794</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="16">
         <v>14128</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="16">
         <v>14022</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="16">
         <v>13777</v>
       </c>
-      <c r="I111" s="18">
+      <c r="I111" s="16">
         <v>14155</v>
       </c>
-      <c r="J111" s="18">
+      <c r="J111" s="16">
         <v>15180</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="13">
         <v>8222</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="13">
         <v>8819</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="16">
         <v>12169</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="16">
         <v>13794</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="16">
         <v>14128</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="16">
         <v>14022</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="16">
         <v>13777</v>
       </c>
-      <c r="I112" s="18">
+      <c r="I112" s="16">
         <v>14155</v>
       </c>
-      <c r="J112" s="18">
+      <c r="J112" s="16">
         <v>15180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="D13"/>
     <mergeCell ref="G11"/>
     <mergeCell ref="H11"/>
     <mergeCell ref="I11"/>
@@ -6596,6 +6581,21 @@
     <mergeCell ref="D11"/>
     <mergeCell ref="E11"/>
     <mergeCell ref="F11"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -6610,7 +6610,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6620,1984 +6620,1969 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>44970.989344861096</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="30">
         <v>44558</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="30">
         <v>44194</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="30">
         <v>43830</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="30">
         <v>43466</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="30">
         <v>43095</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="30">
         <v>42731</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="30">
         <v>42367</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="30">
         <v>42003</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="30">
         <v>41639</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>332.9</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>349.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>701.5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>879.1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>897.9</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>879</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>873.9</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>895.2</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>890.18</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>332.9</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>349.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>701.5</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>879.1</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>897.9</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>879</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>873.9</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <v>895.2</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>890.18</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>332.9</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>349.5</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>701.5</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>879.1</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>897.9</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>879</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>873.9</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>895.2</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>890.18</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>72.5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>159.9</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>224.1</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>230.9</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>224.5</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>220.3</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="13">
         <v>206</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>198.86</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>72.5</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>159.9</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>224.1</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>230.9</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <v>224.5</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <v>220.3</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <v>206</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <v>198.86</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>260.39999999999998</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>274.39999999999998</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>541.6</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>655</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <v>667</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="24">
         <v>654.5</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="24">
         <v>653.6</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="24">
         <v>689.2</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <v>691.33</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>244</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>184</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>872.2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>1673.9</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>1132</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <v>745.6</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="13">
         <v>697.2</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>708</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="13">
         <v>685.33</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>88.9</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>165.5</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <v>541.6</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="29">
         <v>-794.8</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>667</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="24">
         <v>133.4</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>176.7</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="29">
         <v>-314.8</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="29">
         <v>-281.63</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>-13.7</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>3.1</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>-37.200000000000003</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>8.1</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="17">
         <v>-12.3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>-20.399999999999999</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="14">
         <v>59.2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="17">
         <v>-31.4</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="17">
         <v>-28.36</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>13.7</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>-3.1</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>37.200000000000003</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>-8.1</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <v>12.3</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <v>20.399999999999999</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <v>-59.2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>31.4</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="14">
         <v>28.36</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>8.4</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>28.1</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16">
+      <c r="D30" s="16"/>
+      <c r="E30" s="14">
         <v>57</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <v>28.9</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <v>21.7</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="13">
         <v>101.3</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <v>21.8</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="14">
         <v>7.12</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>22.1</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>25</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>37.200000000000003</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>48.9</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <v>41.2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <v>42.1</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <v>42.1</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>53.2</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <v>35.479999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="15">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="13">
         <v>138.69999999999999</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <v>250.1</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="15">
+      <c r="H32" s="16"/>
+      <c r="I32" s="13">
         <v>304.10000000000002</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <v>239.13</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15">
         <v>-369.1</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>-18.399999999999999</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19">
+      <c r="H34" s="16"/>
+      <c r="I34" s="17">
         <v>-19.899999999999999</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <v>-26.86</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15">
         <v>-369.1</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>-18.399999999999999</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19">
+      <c r="H35" s="16"/>
+      <c r="I35" s="17">
         <v>-19.899999999999999</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="17">
         <v>-26.86</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="23">
         <v>75.2</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>168.6</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="23">
         <v>2.5</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="29">
         <v>-698.5</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <v>-230.4</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="24">
         <v>231.7</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="24">
         <v>246.4</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <v>284.2</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <v>212.27</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="17">
         <v>-27.6</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <v>25</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <v>-15.9</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="17">
         <v>-90.4</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="14">
         <v>17.5</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="14">
         <v>20.9</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>-1.3</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <v>25.1</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="14">
         <v>44.47</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="17">
         <v>-27.6</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>25</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>-15.9</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>-90.4</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>17.5</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="16">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="14">
         <v>20.9</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="17">
         <v>-1.3</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <v>25.1</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <v>44.47</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="13">
         <v>102.8</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="13">
         <v>143.6</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="13">
         <v>210.8</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="13">
         <v>247.7</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="24">
         <v>102.8</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="24">
         <v>143.6</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="29">
         <v>-608.1</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="29">
         <v>-247.9</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="24">
         <v>210.8</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="24">
         <v>247.7</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="24">
         <v>259.10000000000002</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="24">
         <v>167.8</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <v>102.8</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <v>143.6</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="13">
         <v>210.8</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="13">
         <v>247.7</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="13">
         <v>102.8</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="13">
         <v>143.6</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="13">
         <v>210.8</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="13">
         <v>247.7</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="24">
         <v>102.8</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="24">
         <v>143.6</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="23">
         <v>18.399999999999999</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="29">
         <v>-608.1</v>
       </c>
-      <c r="F49" s="31">
+      <c r="F49" s="29">
         <v>-247.9</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="24">
         <v>210.8</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="24">
         <v>247.7</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="24">
         <v>259.10000000000002</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="24">
         <v>167.8</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="13">
         <v>102.8</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="13">
         <v>143.6</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="13">
         <v>210.8</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="13">
         <v>247.7</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>102.8</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="13">
         <v>143.6</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="13">
         <v>210.8</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="13">
         <v>247.7</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="13">
         <v>102.8</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="13">
         <v>143.6</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="13">
         <v>210.8</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="13">
         <v>247.7</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="13">
         <v>102.8</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="13">
         <v>143.6</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="15">
         <v>-247.9</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="13">
         <v>210.8</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="13">
         <v>247.7</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="13">
         <v>259.10000000000002</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="13">
         <v>167.8</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>88.9</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="13">
         <v>165.5</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>-170.7</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="15">
         <v>-794.8</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>-234.1</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="13">
         <v>133.4</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="13">
         <v>176.7</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="13">
         <v>187.2</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="13">
         <v>204.85</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="13">
         <v>142.5</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="13">
         <v>220.6</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="15">
         <v>-103.4</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="15">
         <v>-763</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>-199.4</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="13">
         <v>166.4</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="13">
         <v>208</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="13">
         <v>219.1</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="13">
         <v>236.49</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>53.6</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>55.1</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>67.3</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>31.8</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <v>34.700000000000003</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>33</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="14">
         <v>31.3</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="14">
         <v>31.9</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="14">
         <v>31.64</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>41.7</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="14">
         <v>44.2</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="14">
         <v>54.9</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="14">
         <v>21.6</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="14">
         <v>25.7</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="14">
         <v>27.7</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="14">
         <v>28.1</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="14">
         <v>31.9</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="14">
         <v>31.64</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>11.9</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="14">
         <v>10.9</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <v>12.4</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <v>9</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="14">
         <v>5.3</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="14">
         <v>3.2</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>53.6</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="14">
         <v>55.1</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="14">
         <v>67.3</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="14">
         <v>31.8</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="14">
         <v>34.700000000000003</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="14">
         <v>33</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="14">
         <v>31.3</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="14">
         <v>31.9</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="14">
         <v>31.64</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>41.7</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="14">
         <v>44.2</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="14">
         <v>54.9</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="14">
         <v>21.6</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="14">
         <v>25.7</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="14">
         <v>27.7</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H65" s="14">
         <v>28.1</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="14">
         <v>31.9</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="14">
         <v>31.64</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>11.9</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="14">
         <v>10.9</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="14">
         <v>12.4</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="14">
         <v>9</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="14">
         <v>5.3</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H66" s="14">
         <v>3.2</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="13">
         <v>280.5</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="13">
         <v>188.8</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="13">
         <v>280.8</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="13">
         <v>284.5</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="13">
         <v>235.9</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="13">
         <v>258.2</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="13">
         <v>240.2</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="13">
         <v>235.3</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="13">
         <v>264.89999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="13">
         <v>280.5</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="13">
         <v>188.8</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="13">
         <v>280.8</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="13">
         <v>284.5</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="13">
         <v>235.9</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="13">
         <v>258.2</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="13">
         <v>240.2</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="13">
         <v>235.3</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="13">
         <v>264.89999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>0.01</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="14">
         <v>0.01</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="14">
         <v>0.01</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0.01</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="14">
         <v>0.01</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="14">
         <v>0.01</v>
       </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="16">
+      <c r="H71" s="16"/>
+      <c r="I71" s="14">
         <v>0.1</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="14">
         <v>0.32</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="14">
         <v>0.01</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="14">
         <v>0.01</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="14">
         <v>0.01</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="14">
         <v>0.01</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="14">
         <v>0.01</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="14">
         <v>0.01</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="16">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="14">
         <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="16">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="14">
         <v>0.1</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="14">
         <v>0.31</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="13">
         <v>102.8</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="13">
         <v>143.6</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="13">
         <v>121.2</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="13">
         <v>229.2</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="13">
         <v>247.7</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="13">
         <v>279</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="13">
         <v>194.67</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="13">
         <v>102.8</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="13">
         <v>143.6</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="13">
         <v>121.2</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="13">
         <v>229.2</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="13">
         <v>247.7</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="13">
         <v>279</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="13">
         <v>194.67</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="13">
         <v>102.8</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="13">
         <v>143.6</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="15">
         <v>-608.1</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="13">
         <v>121.2</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="13">
         <v>229.2</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="13">
         <v>247.7</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="13">
         <v>279</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="13">
         <v>194.67</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="15">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="13">
         <v>151</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="13">
         <v>270.5</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="15">
+      <c r="H78" s="16"/>
+      <c r="I78" s="13">
         <v>335.5</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="13">
         <v>267.5</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="15">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="13">
         <v>185.7</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="13">
         <v>303.5</v>
       </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="15">
+      <c r="H79" s="16"/>
+      <c r="I79" s="13">
         <v>367.4</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="13">
         <v>299.14</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>72.5</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="13">
         <v>159.9</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="13">
         <v>224.1</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="13">
         <v>230.9</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="13">
         <v>224.5</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="13">
         <v>220.3</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="13">
         <v>206</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="13">
         <v>198.86</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>22.1</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="14">
         <v>25</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="14">
         <v>37.200000000000003</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="14">
         <v>48.9</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="14">
         <v>41.2</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="14">
         <v>42.1</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="14">
         <v>42.1</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="14">
         <v>53.2</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J82" s="14">
         <v>35.479999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="13">
         <v>244</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="13">
         <v>184</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="13">
         <v>872.2</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="13">
         <v>1673.9</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="13">
         <v>1132</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="13">
         <v>745.6</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="13">
         <v>697.2</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="13">
         <v>708</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="13">
         <v>685.33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="D13"/>
     <mergeCell ref="G11"/>
     <mergeCell ref="H11"/>
     <mergeCell ref="I11"/>
@@ -8610,6 +8595,21 @@
     <mergeCell ref="D11"/>
     <mergeCell ref="E11"/>
     <mergeCell ref="F11"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
